--- a/0x00049E5d7c3D6516bd1Df3aceF1e3E3d26Fc5000.xlsx
+++ b/0x00049E5d7c3D6516bd1Df3aceF1e3E3d26Fc5000.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,12 +531,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,219.5</t>
+          <t>$2,191.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$11,537</t>
+          <t>$11,509</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -620,12 +620,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$268.89</t>
+          <t>$232.99</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$9,530.3</t>
+          <t>$9,494.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>$283</t>
+          <t>$247</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$975.61</t>
+          <t>$1,414.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$10,027</t>
+          <t>$10,466</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -717,12 +717,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$3,178.3</t>
+          <t>$3,265.5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$10,076</t>
+          <t>$10,163</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -965,12 +965,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$169.06</t>
+          <t>$159.74</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$2,893</t>
+          <t>$2,883.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>...</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$3,178.3</t>
+          <t>$3,265.5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>$10,076</t>
+          <t>$10,163</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$169.06</t>
+          <t>$159.74</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$2,893</t>
+          <t>$2,883.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$18.780</t>
+          <t>$19.106</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>$750.17</t>
+          <t>$750.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1904,6 +1904,812 @@
         </is>
       </c>
       <c r="L24" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CHACHA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>$731.39</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$19.106</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$750.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>$32.273</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>$755.59</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>$0.0₁₁7671</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>$0.0₉2394</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PND</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>$725.57</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$725.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>$189.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>$1,829.8</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>$0.0₇4500</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>$0.0₆2174</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>$662.11</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$662.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>$288.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>$950.65</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>$0.0₆1442</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>$0.0₆4753</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AURI</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>$549.29</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$549.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>$583.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>$2,087.5</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>$0.00005832</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>$0.0001133</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PANG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>$505.2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$505.2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>$122.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>$797.08</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>$0.0₇1455</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>$0.0₇7459</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>$486.95</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$486.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>$673.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>$998.57</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>$0.0002137</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>$0.0004171</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ABE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>$464.99</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$464.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>$419.6</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>$1,326.9</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>$0.0₅4196</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>$0.0₅8845</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FUUKA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>$445.13</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$445.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>$59.714</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>$636.65</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>$0.0₈7097</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>$0.0₇6000</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NALA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>$436.28</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$436.28</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>$59.178</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>$495.46</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>$0.0₅2958</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>$0.00002477</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ICU</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>$410.77</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$410.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>$469.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>$859.72</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>$0.01574</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>$0.03014</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NEILON</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>$408.04</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$408.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>$35.898</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>$436.75</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>$0.0₈8533</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>$0.0₆1297</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HeartOfGold</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>$401.23</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$4.6730</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$405.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>$178.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>$544.23</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>$0.0₇2236</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>$0.0₇8510</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Doozy</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>$385.6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$385.6</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>$97.751</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>$463.8</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>$0.0₅4887</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>$0.00002899</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>sell</t>
         </is>
